--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep_since_2021/ifoCAst_error_tables_last_rep_first_since_2021.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep_since_2021/ifoCAst_error_tables_last_rep_first_since_2021.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1057800585551553</v>
+        <v>0.1183284763020911</v>
       </c>
       <c r="C2">
-        <v>0.6277388054527897</v>
+        <v>0.6112895150387458</v>
       </c>
       <c r="D2">
-        <v>0.5675195935478994</v>
+        <v>0.5421014366391211</v>
       </c>
       <c r="E2">
-        <v>0.7533389632482176</v>
+        <v>0.7362753809812747</v>
       </c>
       <c r="F2">
-        <v>0.7688308061969585</v>
+        <v>0.7477730290289269</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
